--- a/assets/excel/Warehouse_Template.xlsx
+++ b/assets/excel/Warehouse_Template.xlsx
@@ -465,13 +465,13 @@
   <dimension ref="A1:B37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N10" sqref="N10"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="18.28515625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="23.7109375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="32.85546875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
